--- a/static/templates/Finance_Comprehensive_Budget.xlsx
+++ b/static/templates/Finance_Comprehensive_Budget.xlsx
@@ -509,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning Comprehensive Budget - User Guide &amp; Instructions</t>
+          <t>Finance - Core Banking System Modernization Comprehensive Budget - User Guide &amp; Instructions</t>
         </is>
       </c>
     </row>
@@ -579,6 +579,7 @@
         </is>
       </c>
     </row>
+    <row r="10"/>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
@@ -682,6 +683,7 @@
         </is>
       </c>
     </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
@@ -791,6 +793,7 @@
         </is>
       </c>
     </row>
+    <row r="28"/>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
@@ -847,6 +850,7 @@
         </is>
       </c>
     </row>
+    <row r="37"/>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
@@ -951,6 +955,7 @@
         </is>
       </c>
     </row>
+    <row r="45"/>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
@@ -1007,10 +1012,12 @@
         </is>
       </c>
     </row>
+    <row r="54"/>
+    <row r="55"/>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>📋 ARTIFICIAL INTELLIGENCE AND MACHINE LEARNING PROJECT OVERVIEW</t>
+          <t>📋 FINANCE - CORE BANKING SYSTEM MODERNIZATION PROJECT OVERVIEW</t>
         </is>
       </c>
     </row>
@@ -1050,6 +1057,7 @@
         </is>
       </c>
     </row>
+    <row r="60"/>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
@@ -1149,10 +1157,11 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Executive Budget Summary</t>
-        </is>
-      </c>
-    </row>
+          <t>Finance - Core Banking System Modernization - Executive Budget Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
@@ -1189,6 +1198,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
@@ -1385,10 +1395,11 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Resources Budget</t>
-        </is>
-      </c>
-    </row>
+          <t>Finance - Core Banking System Modernization - Resources Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1424,17 +1435,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>Banking Systems Architect</t>
         </is>
       </c>
       <c r="B4" s="12" t="n">
         <v>180</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="13" t="n">
         <v>160</v>
@@ -1447,17 +1458,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>ML Engineers</t>
+          <t>Core Banking Developer</t>
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>160</v>
@@ -1470,11 +1481,11 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>AI Architects</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="B6" s="12" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>2</v>
@@ -1493,17 +1504,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>DevOps Engineers</t>
+          <t>Integration Specialist</t>
         </is>
       </c>
       <c r="B7" s="12" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="13" t="n">
         <v>160</v>
@@ -1516,17 +1527,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>QA/Testing Lead</t>
         </is>
       </c>
       <c r="B8" s="12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" s="13" t="n">
         <v>160</v>
@@ -1539,17 +1550,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Business Analysts</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="B9" s="12" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" s="13" t="n">
         <v>160</v>
@@ -1562,17 +1573,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>QA Engineers</t>
+          <t>Compliance Officer</t>
         </is>
       </c>
       <c r="B10" s="12" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10" s="13" t="n">
         <v>160</v>
@@ -1582,6 +1593,7 @@
         <v/>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
@@ -1624,10 +1636,11 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Logistics Budget</t>
-        </is>
-      </c>
-    </row>
+          <t>Finance - Core Banking System Modernization - Logistics Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1657,7 +1670,7 @@
         </is>
       </c>
       <c r="B4" s="12" t="n">
-        <v>85000</v>
+        <v>125000</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>1</v>
@@ -1674,7 +1687,7 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="C5" s="13" t="n">
         <v>1</v>
@@ -1691,7 +1704,7 @@
         </is>
       </c>
       <c r="B6" s="12" t="n">
-        <v>35000</v>
+        <v>55000</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>1</v>
@@ -1708,7 +1721,7 @@
         </is>
       </c>
       <c r="B7" s="12" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="C7" s="13" t="n">
         <v>1</v>
@@ -1725,7 +1738,7 @@
         </is>
       </c>
       <c r="B8" s="12" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="C8" s="13" t="n">
         <v>1</v>
@@ -1735,6 +1748,7 @@
         <v/>
       </c>
     </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
@@ -1777,10 +1791,11 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Technology Budget</t>
-        </is>
-      </c>
-    </row>
+          <t>Finance - Core Banking System Modernization - Technology Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1806,11 +1821,11 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure (AWS/Azure)</t>
+          <t>Core Banking Platform License</t>
         </is>
       </c>
       <c r="B4" s="12" t="n">
-        <v>180000</v>
+        <v>2500000</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>1</v>
@@ -1823,11 +1838,11 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>ML Platform Licenses</t>
+          <t>Cloud Infrastructure (AWS/Azure)</t>
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>120000</v>
+        <v>450000</v>
       </c>
       <c r="C5" s="13" t="n">
         <v>1</v>
@@ -1840,11 +1855,11 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Data Storage and Processing</t>
+          <t>Database Management System</t>
         </is>
       </c>
       <c r="B6" s="12" t="n">
-        <v>95000</v>
+        <v>280000</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>1</v>
@@ -1857,11 +1872,11 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Development Tools</t>
+          <t>Security and Encryption Tools</t>
         </is>
       </c>
       <c r="B7" s="12" t="n">
-        <v>45000</v>
+        <v>180000</v>
       </c>
       <c r="C7" s="13" t="n">
         <v>1</v>
@@ -1874,11 +1889,11 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Security and Compliance Tools</t>
+          <t>API Management Platform</t>
         </is>
       </c>
       <c r="B8" s="12" t="n">
-        <v>35000</v>
+        <v>120000</v>
       </c>
       <c r="C8" s="13" t="n">
         <v>1</v>
@@ -1891,11 +1906,11 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Monitoring and Analytics</t>
+          <t>Testing and QA Tools</t>
         </is>
       </c>
       <c r="B9" s="12" t="n">
-        <v>25000</v>
+        <v>95000</v>
       </c>
       <c r="C9" s="13" t="n">
         <v>1</v>
@@ -1905,6 +1920,7 @@
         <v/>
       </c>
     </row>
+    <row r="10"/>
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
@@ -1947,10 +1963,11 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Training Budget</t>
-        </is>
-      </c>
-    </row>
+          <t>Finance - Core Banking System Modernization - Training Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1976,14 +1993,14 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>AI/ML Certification Programs</t>
+          <t>Core Banking Platform Training</t>
         </is>
       </c>
       <c r="B4" s="12" t="n">
-        <v>45000</v>
+        <v>85000</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7">
         <f>B4*C4</f>
@@ -1993,14 +2010,14 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Technical Training Materials</t>
+          <t>Compliance and Regulatory Training</t>
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7">
         <f>B5*C5</f>
@@ -2010,14 +2027,14 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Conference and Workshop Attendance</t>
+          <t>Technical Skills Development</t>
         </is>
       </c>
       <c r="B6" s="12" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
         <f>B6*C6</f>
@@ -2027,14 +2044,14 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Internal Training Development</t>
+          <t>Change Management Workshops</t>
         </is>
       </c>
       <c r="B7" s="12" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7">
         <f>B7*C7</f>
@@ -2044,20 +2061,21 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>External Training Consultants</t>
+          <t>End-User Training Materials</t>
         </is>
       </c>
       <c r="B8" s="12" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D8" s="7">
         <f>B8*C8</f>
         <v/>
       </c>
     </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
@@ -2100,10 +2118,11 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Contingency Budget</t>
-        </is>
-      </c>
-    </row>
+          <t>Finance - Core Banking System Modernization - Contingency Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -2142,6 +2161,7 @@
         </is>
       </c>
     </row>
+    <row r="5"/>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
@@ -2157,7 +2177,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>Additional requirements or scope expansion</t>
+          <t>Regulatory changes or compliance requirements</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2215,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>Staff turnover or skill gaps</t>
+          <t>Staff turnover or skill gaps in banking domain</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2234,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>Delays or timeline extensions</t>
+          <t>Delays or timeline extensions due to testing</t>
         </is>
       </c>
     </row>
@@ -2237,6 +2257,7 @@
         </is>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
@@ -2248,6 +2269,7 @@
         <v/>
       </c>
     </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
         <is>
@@ -2310,10 +2332,11 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Budget Timeline</t>
-        </is>
-      </c>
-    </row>
+          <t>Finance - Core Banking System Modernization - Budget Timeline</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>

--- a/static/templates/Finance_Comprehensive_Budget.xlsx
+++ b/static/templates/Finance_Comprehensive_Budget.xlsx
@@ -509,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Finance - Core Banking System Modernization Comprehensive Budget - User Guide &amp; Instructions</t>
+          <t>Artificial Intelligence and Machine Learning Comprehensive Budget - User Guide &amp; Instructions</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
@@ -683,7 +682,6 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
@@ -793,7 +791,6 @@
         </is>
       </c>
     </row>
-    <row r="28"/>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
@@ -850,7 +847,6 @@
         </is>
       </c>
     </row>
-    <row r="37"/>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
@@ -955,7 +951,6 @@
         </is>
       </c>
     </row>
-    <row r="45"/>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
@@ -1012,12 +1007,10 @@
         </is>
       </c>
     </row>
-    <row r="54"/>
-    <row r="55"/>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>📋 FINANCE - CORE BANKING SYSTEM MODERNIZATION PROJECT OVERVIEW</t>
+          <t>📋 ARTIFICIAL INTELLIGENCE AND MACHINE LEARNING PROJECT OVERVIEW</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1050,6 @@
         </is>
       </c>
     </row>
-    <row r="60"/>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
@@ -1157,11 +1149,10 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Finance - Core Banking System Modernization - Executive Budget Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Executive Budget Summary</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
@@ -1198,7 +1189,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
@@ -1395,11 +1385,10 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Finance - Core Banking System Modernization - Resources Budget</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Resources Budget</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1435,17 +1424,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Banking Systems Architect</t>
+          <t>Data Scientists</t>
         </is>
       </c>
       <c r="B4" s="12" t="n">
         <v>180</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="13" t="n">
         <v>160</v>
@@ -1458,17 +1447,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Core Banking Developer</t>
+          <t>ML Engineers</t>
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>160</v>
@@ -1481,11 +1470,11 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>AI Architects</t>
         </is>
       </c>
       <c r="B6" s="12" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>2</v>
@@ -1504,17 +1493,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Integration Specialist</t>
+          <t>DevOps Engineers</t>
         </is>
       </c>
       <c r="B7" s="12" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="13" t="n">
         <v>160</v>
@@ -1527,17 +1516,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>QA/Testing Lead</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="B8" s="12" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E8" s="13" t="n">
         <v>160</v>
@@ -1550,17 +1539,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Business Analysts</t>
         </is>
       </c>
       <c r="B9" s="12" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="13" t="n">
         <v>160</v>
@@ -1573,17 +1562,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Compliance Officer</t>
+          <t>QA Engineers</t>
         </is>
       </c>
       <c r="B10" s="12" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" s="13" t="n">
         <v>160</v>
@@ -1593,7 +1582,6 @@
         <v/>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
@@ -1636,11 +1624,10 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Finance - Core Banking System Modernization - Logistics Budget</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Logistics Budget</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1670,7 +1657,7 @@
         </is>
       </c>
       <c r="B4" s="12" t="n">
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>1</v>
@@ -1687,7 +1674,7 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="C5" s="13" t="n">
         <v>1</v>
@@ -1704,7 +1691,7 @@
         </is>
       </c>
       <c r="B6" s="12" t="n">
-        <v>55000</v>
+        <v>35000</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>1</v>
@@ -1721,7 +1708,7 @@
         </is>
       </c>
       <c r="B7" s="12" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="C7" s="13" t="n">
         <v>1</v>
@@ -1738,7 +1725,7 @@
         </is>
       </c>
       <c r="B8" s="12" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="C8" s="13" t="n">
         <v>1</v>
@@ -1748,7 +1735,6 @@
         <v/>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
@@ -1791,11 +1777,10 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Finance - Core Banking System Modernization - Technology Budget</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Technology Budget</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1821,11 +1806,11 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Core Banking Platform License</t>
+          <t>Cloud Infrastructure (AWS/Azure)</t>
         </is>
       </c>
       <c r="B4" s="12" t="n">
-        <v>2500000</v>
+        <v>180000</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>1</v>
@@ -1838,11 +1823,11 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure (AWS/Azure)</t>
+          <t>ML Platform Licenses</t>
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>450000</v>
+        <v>120000</v>
       </c>
       <c r="C5" s="13" t="n">
         <v>1</v>
@@ -1855,11 +1840,11 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Database Management System</t>
+          <t>Data Storage and Processing</t>
         </is>
       </c>
       <c r="B6" s="12" t="n">
-        <v>280000</v>
+        <v>95000</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>1</v>
@@ -1872,11 +1857,11 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Security and Encryption Tools</t>
+          <t>Development Tools</t>
         </is>
       </c>
       <c r="B7" s="12" t="n">
-        <v>180000</v>
+        <v>45000</v>
       </c>
       <c r="C7" s="13" t="n">
         <v>1</v>
@@ -1889,11 +1874,11 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>API Management Platform</t>
+          <t>Security and Compliance Tools</t>
         </is>
       </c>
       <c r="B8" s="12" t="n">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="C8" s="13" t="n">
         <v>1</v>
@@ -1906,11 +1891,11 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Testing and QA Tools</t>
+          <t>Monitoring and Analytics</t>
         </is>
       </c>
       <c r="B9" s="12" t="n">
-        <v>95000</v>
+        <v>25000</v>
       </c>
       <c r="C9" s="13" t="n">
         <v>1</v>
@@ -1920,7 +1905,6 @@
         <v/>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
@@ -1963,11 +1947,10 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Finance - Core Banking System Modernization - Training Budget</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Training Budget</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1993,14 +1976,14 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Core Banking Platform Training</t>
+          <t>AI/ML Certification Programs</t>
         </is>
       </c>
       <c r="B4" s="12" t="n">
-        <v>85000</v>
+        <v>45000</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
         <f>B4*C4</f>
@@ -2010,14 +1993,14 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Compliance and Regulatory Training</t>
+          <t>Technical Training Materials</t>
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
         <f>B5*C5</f>
@@ -2027,14 +2010,14 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Technical Skills Development</t>
+          <t>Conference and Workshop Attendance</t>
         </is>
       </c>
       <c r="B6" s="12" t="n">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
         <f>B6*C6</f>
@@ -2044,14 +2027,14 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Change Management Workshops</t>
+          <t>Internal Training Development</t>
         </is>
       </c>
       <c r="B7" s="12" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
         <f>B7*C7</f>
@@ -2061,21 +2044,20 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>End-User Training Materials</t>
+          <t>External Training Consultants</t>
         </is>
       </c>
       <c r="B8" s="12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
         <f>B8*C8</f>
         <v/>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
@@ -2118,11 +2100,10 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Finance - Core Banking System Modernization - Contingency Budget</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Contingency Budget</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -2161,7 +2142,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
@@ -2177,7 +2157,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>Regulatory changes or compliance requirements</t>
+          <t>Additional requirements or scope expansion</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2195,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>Staff turnover or skill gaps in banking domain</t>
+          <t>Staff turnover or skill gaps</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2214,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>Delays or timeline extensions due to testing</t>
+          <t>Delays or timeline extensions</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2237,6 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
@@ -2269,7 +2248,6 @@
         <v/>
       </c>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
         <is>
@@ -2332,11 +2310,10 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Finance - Core Banking System Modernization - Budget Timeline</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Budget Timeline</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
